--- a/报名流程/辅导班签到表.xlsx
+++ b/报名流程/辅导班签到表.xlsx
@@ -30,11 +30,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>签到表</t>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
+    <t>签到表（2）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,13 +151,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -463,15 +463,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:I29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -802,18 +802,18 @@
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="7">
-        <v>42673</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="B29" s="5">
+        <v>42686</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/报名流程/辅导班签到表.xlsx
+++ b/报名流程/辅导班签到表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,13 +36,289 @@
   <si>
     <t>签到表（2）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李文峰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张璇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈蔚蓝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐未</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁运</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖伟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱杰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪萍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐思英</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨露</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周裕寒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭秘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>覃玮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭丽莎</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张红春</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚玉兰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘学芹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周潘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张兰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈佳音</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐娜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张杪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄雅玲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>马琴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>牟婧婷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘子妍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷艳芳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>柯兰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卓苏霞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚薇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈红艳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘琳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙淑慧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>申品才</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周恒召</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨娜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冉影</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>田余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧江洁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙育红</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴轶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>何攀攀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李毅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈姣</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁地兰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张颖绮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑茜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴妞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张玉平</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>余艳琼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱婷婷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗燕玲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>向飞艳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>田江丽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周鑫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周桧楠</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张凤娥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>舒春艳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈瑛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐微</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜攀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>连横</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>覃亿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>喻红娇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>牟黎</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴芬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪腊娜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李福玲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +339,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -139,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -148,6 +431,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -464,23 +750,23 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -515,208 +801,320 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="G17" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="D18" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="G18" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="G19" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="D20" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="G20" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -724,10 +1122,14 @@
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
+      <c r="A22" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="D22" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -735,10 +1137,14 @@
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
+      <c r="A23" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="D23" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -746,10 +1152,14 @@
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
+      <c r="A24" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -757,10 +1167,14 @@
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3"/>
+      <c r="A25" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="D25" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -768,10 +1182,14 @@
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
+      <c r="A26" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="D26" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -779,10 +1197,14 @@
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
+      <c r="A27" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="D27" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -790,10 +1212,14 @@
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
+      <c r="A28" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -804,16 +1230,16 @@
       <c r="A29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="6">
         <v>42686</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/报名流程/辅导班签到表.xlsx
+++ b/报名流程/辅导班签到表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,13 +312,37 @@
   <si>
     <t>李福玲</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>许健</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王晓虹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴媛媛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭秋艳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田芳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘召霞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +371,13 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -422,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -446,6 +477,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -749,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -811,7 +846,7 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="9" t="s">
         <v>55</v>
       </c>
       <c r="H3" s="3"/>
@@ -828,7 +863,7 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="9" t="s">
         <v>56</v>
       </c>
       <c r="H4" s="3"/>
@@ -845,7 +880,7 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="9" t="s">
         <v>57</v>
       </c>
       <c r="H5" s="3"/>
@@ -862,7 +897,7 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="9" t="s">
         <v>58</v>
       </c>
       <c r="H6" s="3"/>
@@ -879,7 +914,7 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H7" s="3"/>
@@ -896,7 +931,7 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="9" t="s">
         <v>60</v>
       </c>
       <c r="H8" s="3"/>
@@ -913,7 +948,7 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="9" t="s">
         <v>61</v>
       </c>
       <c r="H9" s="3"/>
@@ -930,7 +965,7 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="9" t="s">
         <v>62</v>
       </c>
       <c r="H10" s="3"/>
@@ -947,7 +982,7 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="9" t="s">
         <v>63</v>
       </c>
       <c r="H11" s="3"/>
@@ -964,7 +999,7 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="9" t="s">
         <v>64</v>
       </c>
       <c r="H12" s="3"/>
@@ -981,7 +1016,7 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="9" t="s">
         <v>65</v>
       </c>
       <c r="H13" s="3"/>
@@ -998,7 +1033,7 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="9" t="s">
         <v>66</v>
       </c>
       <c r="H14" s="3"/>
@@ -1010,12 +1045,12 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="9" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="9" t="s">
         <v>67</v>
       </c>
       <c r="H15" s="3"/>
@@ -1027,12 +1062,12 @@
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="9" t="s">
         <v>44</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="9" t="s">
         <v>68</v>
       </c>
       <c r="H16" s="3"/>
@@ -1044,12 +1079,12 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="9" t="s">
         <v>73</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="9" t="s">
         <v>69</v>
       </c>
       <c r="H17" s="3"/>
@@ -1061,12 +1096,12 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="9" t="s">
         <v>70</v>
       </c>
       <c r="H18" s="3"/>
@@ -1083,7 +1118,7 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="9" t="s">
         <v>71</v>
       </c>
       <c r="H19" s="3"/>
@@ -1095,12 +1130,12 @@
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="9" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="9" t="s">
         <v>72</v>
       </c>
       <c r="H20" s="3"/>
@@ -1112,12 +1147,14 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="9" t="s">
         <v>47</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
@@ -1127,12 +1164,14 @@
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="G22" s="10" t="s">
+        <v>75</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
@@ -1142,12 +1181,14 @@
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="9" t="s">
         <v>49</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="G23" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
@@ -1157,12 +1198,14 @@
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="9" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
@@ -1172,12 +1215,14 @@
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="9" t="s">
         <v>51</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
@@ -1187,12 +1232,14 @@
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="G26" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
@@ -1202,7 +1249,7 @@
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="9" t="s">
         <v>53</v>
       </c>
       <c r="E27" s="3"/>
@@ -1217,7 +1264,7 @@
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="9" t="s">
         <v>54</v>
       </c>
       <c r="E28" s="3"/>
